--- a/Trossulus_edulis_distrudution_in_Kandalaksha_English/Resubmission MEPS/Supplement 1.xlsx
+++ b/Trossulus_edulis_distrudution_in_Kandalaksha_English/Resubmission MEPS/Supplement 1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Table S1" sheetId="1" r:id="rId1"/>
@@ -2277,7 +2277,7 @@
     <t>Zhemshel6</t>
   </si>
   <si>
-    <t>Table S3. Reconstructed total abundance (indivduals per squre meter) of mussels of T- and E-morphotypes.</t>
+    <t>Table S3. Abundance (indivduals per squre meter) of mussels of T- and E-morphotypes.</t>
   </si>
   <si>
     <t>T-morphotype</t>
@@ -2848,7 +2848,7 @@
     <numFmt numFmtId="186" formatCode="#\ ##0"/>
     <numFmt numFmtId="187" formatCode="mmm\.yy"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2943,12 +2943,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="204"/>
     </font>
@@ -3481,13 +3475,16 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3496,118 +3493,115 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3735,7 +3729,7 @@
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3744,19 +3738,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4880,7 +4874,7 @@
   <sheetPr/>
   <dimension ref="A1:Q573"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -35205,8 +35199,8 @@
   <sheetPr/>
   <dimension ref="A1:F507"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="5"/>
